--- a/Doc/requirement/System Requirement Specification.xlsx
+++ b/Doc/requirement/System Requirement Specification.xlsx
@@ -8,13 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="系统需求" sheetId="1" r:id="rId1"/>
+    <sheet name="需求层次划分" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">系统需求!$A$1:$E$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">需求层次划分!$A$1:$C$18</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="138">
+  <si>
+    <t>No</t>
+  </si>
   <si>
     <t>需求编号</t>
   </si>
@@ -25,10 +33,47 @@
     <t>需求内容</t>
   </si>
   <si>
-    <t>关联需求</t>
-  </si>
-  <si>
-    <t>SRS_SYS_001</t>
+    <t>关联需求和资源</t>
+  </si>
+  <si>
+    <t>SRS_SYS_01001</t>
+  </si>
+  <si>
+    <t>系统模块划分</t>
+  </si>
+  <si>
+    <t>1.任务调度模块Task
+2.数据模块libsql_utils
+3.数据获取模块libspider
+4.可视化层Web
+5.业务层strategy、risk_manager、order_center、settle_center
+6.算法层
+7.数据层含各种数据库</t>
+  </si>
+  <si>
+    <t>SRS_BASE_01001</t>
+  </si>
+  <si>
+    <t>配置文件需求</t>
+  </si>
+  <si>
+    <t>配置文件config中包含:
+1.MySQL服务器的ip地址
+2.Neo4j服务器的ip地址
+3.Redis数据库的ip地址
+4.Apache和Django3的Web服务器ip地址</t>
+  </si>
+  <si>
+    <t>SRS_BASE_02001</t>
+  </si>
+  <si>
+    <t>启动文件流程图</t>
+  </si>
+  <si>
+    <t>run_seq.png</t>
+  </si>
+  <si>
+    <t>SRS_BASE_02002</t>
   </si>
   <si>
     <t>系统启动需求</t>
@@ -37,13 +82,374 @@
     <t>系统通过fork方法产生daemon进程启动，需要输入两个参数：1. pid文件的绝对路径，2.log文件的绝对路径</t>
   </si>
   <si>
-    <t>SRS_SYS_00101</t>
+    <t>SRS_BASE_02003</t>
   </si>
   <si>
     <t>重定向需求</t>
   </si>
   <si>
     <t>系统fork后需要对输出进行重定向，均以log文件作为重定向的对象。</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02001</t>
+  </si>
+  <si>
+    <t>系统部署架构</t>
+  </si>
+  <si>
+    <t>1. 系统部署在Ubuntu系统中
+2. Redis、MySQL和Neo4j数据库分别以Docker的方式部署，以实现快速扩展。
+3. Apache和Django3统一通过Docker的方式部署在一个服务器上。</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02002</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02003</t>
+  </si>
+  <si>
+    <t>通过一个setup脚本将系统部署在/opt/目录下</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02004</t>
+  </si>
+  <si>
+    <t>setup脚本需求</t>
+  </si>
+  <si>
+    <t>setup脚本中包含：
+1.log文件路径
+2.pid文件路径</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02101</t>
+  </si>
+  <si>
+    <t>Ubuntu系统版本</t>
+  </si>
+  <si>
+    <t>Ubuntu系统基于20.04 LTS</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02102</t>
+  </si>
+  <si>
+    <t>MySQL版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02103</t>
+  </si>
+  <si>
+    <t>Django版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02104</t>
+  </si>
+  <si>
+    <t>Apache版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02105</t>
+  </si>
+  <si>
+    <t>Docker版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02106</t>
+  </si>
+  <si>
+    <t>Neo4j版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02107</t>
+  </si>
+  <si>
+    <t>JDK版本</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02108</t>
+  </si>
+  <si>
+    <t>Redis版本</t>
+  </si>
+  <si>
+    <t>SRS_TASK_01001</t>
+  </si>
+  <si>
+    <t>Task任务调度需求</t>
+  </si>
+  <si>
+    <t>任务调度可以根据Redis当中的置位来定期更新库
+每隔1800s定时更新一次任务调度表</t>
+  </si>
+  <si>
+    <t>SRS_TASK_01002</t>
+  </si>
+  <si>
+    <t>通过独立的工具可以手动添加任务和删除任务</t>
+  </si>
+  <si>
+    <t>SRS_TASK_01003</t>
+  </si>
+  <si>
+    <t>任务调度表需求</t>
+  </si>
+  <si>
+    <t>任务可以是定时触发的，也可以是事件触发</t>
+  </si>
+  <si>
+    <t>SRS_AI_01001</t>
+  </si>
+  <si>
+    <t>AI引擎需求</t>
+  </si>
+  <si>
+    <t>AI业务分为数据处理、模型训练、模型验证、模型持久化和模型运行</t>
+  </si>
+  <si>
+    <t>SRS_TASK_01004</t>
+  </si>
+  <si>
+    <t>任务调度需求</t>
+  </si>
+  <si>
+    <t>任务有运行优先级，特定优先级的任务例如机器学习训练，当系统资源占用高于一定水平时，就自动降低运行强度。</t>
+  </si>
+  <si>
+    <t>SRS_QT_01001</t>
+  </si>
+  <si>
+    <t>量化系统账号管理模块需求</t>
+  </si>
+  <si>
+    <t>账号管理对每一个用户User可创建多个账户Acc。</t>
+  </si>
+  <si>
+    <t>SRS_QT_01002</t>
+  </si>
+  <si>
+    <t>账号内容</t>
+  </si>
+  <si>
+    <t>每个账号acc中包括以下数据：
+uid，name，create_date
+currency</t>
+  </si>
+  <si>
+    <t>SRS_QT_01003</t>
+  </si>
+  <si>
+    <t>历史净值管理</t>
+  </si>
+  <si>
+    <t>每个账号acc定期要进行结算(每日）形成历史净值报告。</t>
+  </si>
+  <si>
+    <t>SRS_UI_01001</t>
+  </si>
+  <si>
+    <t>历史净值的呈现方案</t>
+  </si>
+  <si>
+    <t>7天滚动历史净值+历史净值曲线。依赖于一个通用的曲线生成器实现。</t>
+  </si>
+  <si>
+    <t>SRS_UI_01002</t>
+  </si>
+  <si>
+    <t>净值统计信息内容</t>
+  </si>
+  <si>
+    <t>alpha、beta、sharpe ratio、profit rate、max draw</t>
+  </si>
+  <si>
+    <t>SRS_UI_01003</t>
+  </si>
+  <si>
+    <t>K线图功能</t>
+  </si>
+  <si>
+    <t>K线图API</t>
+  </si>
+  <si>
+    <t>SRS_UI_01004</t>
+  </si>
+  <si>
+    <t>柱形图</t>
+  </si>
+  <si>
+    <t>柱形图API</t>
+  </si>
+  <si>
+    <t>SRS_UI_01005</t>
+  </si>
+  <si>
+    <t>读取配置文件功能</t>
+  </si>
+  <si>
+    <t>xml格式的配置文件，由程序读取形成图像模板配置</t>
+  </si>
+  <si>
+    <t>SRS_UI_01006</t>
+  </si>
+  <si>
+    <t>饼图</t>
+  </si>
+  <si>
+    <t>饼图API</t>
+  </si>
+  <si>
+    <t>SRS_UI_01007</t>
+  </si>
+  <si>
+    <t>曲线图</t>
+  </si>
+  <si>
+    <t>单曲线图API</t>
+  </si>
+  <si>
+    <t>SRS_UI_01008</t>
+  </si>
+  <si>
+    <t>多曲线图</t>
+  </si>
+  <si>
+    <t>多曲线图API</t>
+  </si>
+  <si>
+    <t>SRS_UI_01009</t>
+  </si>
+  <si>
+    <t>SRS_UI_01010</t>
+  </si>
+  <si>
+    <t>SRS_UI_01011</t>
+  </si>
+  <si>
+    <t>SRS_STG_01001</t>
+  </si>
+  <si>
+    <t>采用小波变换对K线进行滤波分析</t>
+  </si>
+  <si>
+    <t>应用傅里叶变换对日K线数据进行滤波，获得多个周期成分。用主要几个周期成分对日K线进行还原。获得滤波后K线用于对趋势进行预测。</t>
+  </si>
+  <si>
+    <t>SRS_STG_01002</t>
+  </si>
+  <si>
+    <t>策略1</t>
+  </si>
+  <si>
+    <t>对未来一段时间窗口内上升速率高于特定值的标的进行买入</t>
+  </si>
+  <si>
+    <t>SRS_STG_01003</t>
+  </si>
+  <si>
+    <t>策略2</t>
+  </si>
+  <si>
+    <t>对未来一段时间窗口内到达最低点的特定标的进行监控并伺机买入</t>
+  </si>
+  <si>
+    <t>SRS_STG_02001</t>
+  </si>
+  <si>
+    <t>应用CNN进行特征分析</t>
+  </si>
+  <si>
+    <t>应用无监督学习法构造分类，应用1d CNN网络进行学习，对日K线进行筛选，选择合适的形态作为短期标的池。</t>
+  </si>
+  <si>
+    <t>需求级别</t>
+  </si>
+  <si>
+    <t>SRS_SYS</t>
+  </si>
+  <si>
+    <t>系统架构需求</t>
+  </si>
+  <si>
+    <t>SRS_SYS_01</t>
+  </si>
+  <si>
+    <t>开发架构需求</t>
+  </si>
+  <si>
+    <t>SRS_SYS_02</t>
+  </si>
+  <si>
+    <t>部署架构需求</t>
+  </si>
+  <si>
+    <t>SRS_SYS_021</t>
+  </si>
+  <si>
+    <t>软件系统版本</t>
+  </si>
+  <si>
+    <t>SRS_BASE</t>
+  </si>
+  <si>
+    <t>系统基础功能</t>
+  </si>
+  <si>
+    <t>SRS_BASE_01</t>
+  </si>
+  <si>
+    <t>配置功能</t>
+  </si>
+  <si>
+    <t>SRS_BASE_02</t>
+  </si>
+  <si>
+    <t>启动程序</t>
+  </si>
+  <si>
+    <t>SRS_TASK</t>
+  </si>
+  <si>
+    <t>任务模块需求</t>
+  </si>
+  <si>
+    <t>SRS_UI</t>
+  </si>
+  <si>
+    <t>UI模块需求</t>
+  </si>
+  <si>
+    <t>SRS_DATA</t>
+  </si>
+  <si>
+    <t>数据模块需求</t>
+  </si>
+  <si>
+    <t>SRS_AI</t>
+  </si>
+  <si>
+    <t>机器学习及深度学习系统需求</t>
+  </si>
+  <si>
+    <t>Reserve 模块级别需求</t>
+  </si>
+  <si>
+    <t>SRS_QT</t>
+  </si>
+  <si>
+    <t>量化系统需求</t>
+  </si>
+  <si>
+    <t>SRS_QT_01</t>
+  </si>
+  <si>
+    <t>账号管理模块</t>
+  </si>
+  <si>
+    <t>SRS_STG</t>
+  </si>
+  <si>
+    <t>策略模块</t>
   </si>
 </sst>
 </file>
@@ -56,7 +462,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +475,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -554,48 +953,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -605,110 +1007,110 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,10 +1118,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,217 +1477,926 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.55555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="58.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="32.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.7777777777778" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="31.2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="124.8" spans="1:5">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="78" spans="1:5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="31.2" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" ht="31.2" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" ht="78" spans="1:5">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" ht="46.8" spans="1:5">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="31.2" spans="1:5">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" ht="31.2" spans="1:5">
+      <c r="A22" s="5">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5">
         <v>9</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
+      <c r="B23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" ht="31.2" spans="1:5">
+      <c r="A25" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" ht="31.2" spans="1:5">
+      <c r="A26" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" ht="46.8" spans="1:5">
+      <c r="A28" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="B28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" ht="31.2" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="B34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4">
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" ht="46.8" spans="1:5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" ht="31.2" spans="1:5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="5.55555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>